--- a/document/1.0/admin/江湖TV后台Web系统评估.xlsx
+++ b/document/1.0/admin/江湖TV后台Web系统评估.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>功能描述</t>
   </si>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>邮件服务器配置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>后台日志管理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -106,13 +102,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>新增频道分类： 名称和说明
-修改频道分类： 名称和说明
-删除频道分类
-显示频道分类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>频道数据</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -133,12 +122,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>PC首页广告添加、修改和删除
-PC直播页广告添加、修改和删除
-手机端官方推广添加、修改和删除</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>虚拟商品管理</t>
   </si>
   <si>
@@ -148,10 +131,6 @@
     <t>虚拟商品收益管理</t>
   </si>
   <si>
-    <t>可查询区域流水
-可查询区域总账</t>
-  </si>
-  <si>
     <t>会员管理</t>
   </si>
   <si>
@@ -161,19 +140,9 @@
     <t>会员信息查询</t>
   </si>
   <si>
-    <t>充值记录查询与显示
-消费记录查询与显示
-提现记录查询与显示</t>
-  </si>
-  <si>
     <t>会员账户现金管理</t>
   </si>
   <si>
-    <t>充值
-提现
-现金账户操作记录</t>
-  </si>
-  <si>
     <t>资金管理</t>
   </si>
   <si>
@@ -195,9 +164,6 @@
     <t>自定义正在直播内容(8个)</t>
   </si>
   <si>
-    <t>用于频道推荐</t>
-  </si>
-  <si>
     <t>投票管理</t>
   </si>
   <si>
@@ -211,6 +177,43 @@
   </si>
   <si>
     <t>账户密码修改</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>权限分配</t>
+  </si>
+  <si>
+    <t>账户管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制中心管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义分类内容(3个)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC播放自定义模板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员信息获取：基本信息、权限以及账户余额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户退出登录，及登录凭证过期处理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>以下4种角色账户用登后台的权限：
@@ -218,9 +221,15 @@
 2,省级代理商
 3,市级代理商
 4,县级代理商</t>
-  </si>
-  <si>
-    <t>角色管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序架构设计，底层数据库设计等</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件服务器配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>新增角色, 包括角色名称和描述信息
@@ -228,15 +237,6 @@
 删除角色: 角色与账号关联，是否允许删除角色？
 启用角色
 禁用角色: 角色与账号关联，禁用角色后，账号如何处理？</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>权限分配</t>
-  </si>
-  <si>
-    <t>账户管理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -264,9 +264,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>操作记录日志，记录操作系统的用户、时间、模块、功能等。
+系统运行日志，记录系统运行状态，包括记录系统运行启动时间，停止时间、操作失败、警告、异常等系统行为。
+系统故障日志，记录系统运行过程中出现的故障日志，便于开发和维护人员快速定位和解决问题。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>查询频道号
 查询结果展示
 查询结果操作: 启用、停用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增频道分类： 名称和说明
+修改频道分类： 名称和说明
+删除频道分类
+显示频道分类</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -278,8 +291,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>超级管理员或代理商通过快捷方式，进入普通会员界面，如帮助普通会员配置直播间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC首页广告添加、修改和删除
+PC直播页广告添加、修改和删除
+手机端官方推广添加、修改和删除</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>PC端：初使价格、递减价格和最低价格
 手机端：初使价格、递减价格和最低价格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查询区域流水
+可查询区域总账</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -290,11 +318,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>程序架构设计，底层数据库设计等</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制中心管理</t>
+    <t>充值记录查询与显示
+消费记录查询与显示
+提现记录查询与显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值
+提现
+现金账户操作记录</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -306,7 +338,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>自定义分类内容(3个)</t>
+    <t>资金进出账明细</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于频道推荐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置首页，如人气活动、社团之星、开心剧场等视频推荐分类，每个与多个房间分类关联</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -314,19 +354,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>PC播放自定义模板</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>定义几套模板，供普通用户选择</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>配置首页如人气活动、社团之星、开心剧场等视频推荐分类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金进出账明细</t>
+    <t>我的关注：会员关注房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基本参数配置: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如账务参数，用户与代理商与平台利益分配比例，代理商与平台分配比例</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -354,14 +402,8 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>操作记录日志，记录操作系统的用户、时间、模块、功能等。
-系统运行日志，记录系统运行状态，包括记录系统运行启动时间，停止时间、操作失败、警告、异常等系统行为。
-系统故障日志，记录系统运行过程中出现的故障日志，便于开发和维护人员快速定位和解决问题。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">基本参数配置: </t>
+      <t>会员信息修改：妮称(只允许修改一次)、身份证信息和其它基本信息。</t>
     </r>
     <r>
       <rPr>
@@ -371,23 +413,180 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>如账务参数，用户与代理商与平台利益分配比例，代理商与平台分配比例</t>
+      <t>是否做身份证认证？</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>超级管理员或代理商通过快捷方式，进入普通会员界面，如帮助普通会员配置直播间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>App与Web管理平台数据接口设计</t>
+    <t>房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录：QQ登录、微信登录和账户登录 (直播控制和后台控制只允许账户登录)
+退出，自动过期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取主播道具列表(10个, 后台挑选)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取官房推荐房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索房间:
+1,用户输出关键字(房间号、主播名等)搜索
+2,分页查询房间
+3,房间分类查找</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间分类列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取首页直定义推荐分类(3个)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取首页推荐直播房间(1个)
+获取首页背景广告或房间推荐 (1个)
+获取首页推荐房间(6个)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取充值金额列表: 10元, 50元, 1000元等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (后台可配置，还是前端写死？)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间播放历史记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取官方推荐广告和主播推荐广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间发起的互动投票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众互动投票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众关注房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>房间二维码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台二维码，房间二维码，主播二维码？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众添加房间评论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取观众房间评论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝充值(第三方)
+微信充值(第三方)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取房间详细信息：名称，主播，分类，状态，详情等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>播放详情和播放公告是同一个吗？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册：手机号码注册，发送手机验证码(第三方)，头像上传
+修改密码
+忘记密码：重置密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观多评论表情包？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>观看历史记录，清空历史记录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>历史记录自动过期(后台可配置)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送礼物，打赏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员消费记录(打赏记录): 房间，主播，礼品类型，数量，价值，消费时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -495,6 +694,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -580,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="distributed"/>
@@ -609,34 +822,65 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="3"/>
   </cellStyles>
@@ -1154,13 +1398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" style="1" customWidth="1"/>
@@ -1169,467 +1413,791 @@
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="32.450000000000003" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="16"/>
       <c r="E3" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="87" customHeight="1">
+    <row r="5" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" customHeight="1">
+    <row r="8" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="85.5" customHeight="1">
+    <row r="9" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="91.5" customHeight="1">
+    <row r="10" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="74.25" customHeight="1">
+    <row r="11" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="114" customHeight="1">
+    <row r="12" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="76.5" customHeight="1">
+    <row r="13" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="59.25" customHeight="1">
+    <row r="14" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75" customHeight="1">
+    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="16"/>
       <c r="E15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="86.25" customHeight="1">
+    <row r="16" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="16"/>
       <c r="E16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1">
+    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="56.25" customHeight="1">
+    <row r="18" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="16"/>
       <c r="E18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="40.5" customHeight="1">
+    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1">
+    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="16"/>
       <c r="E20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72" customHeight="1">
+    <row r="21" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36" customHeight="1">
+    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="162" customHeight="1">
+    <row r="23" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="16"/>
       <c r="E23" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64.5" customHeight="1">
+    <row r="24" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="16"/>
       <c r="E24" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="63" customHeight="1">
+    <row r="25" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="16"/>
       <c r="E25" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1">
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1">
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1">
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1">
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="16"/>
       <c r="E29" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1">
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="D30" s="18"/>
       <c r="E30" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1">
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="16"/>
       <c r="E31" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1">
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1">
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1">
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.5" customHeight="1">
+    <row r="35" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="11"/>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="12">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+  <mergeCells count="61">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -1645,20 +2213,12 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,7 +2235,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,7 +2252,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/1.0/admin/江湖TV后台Web系统评估.xlsx
+++ b/document/1.0/admin/江湖TV后台Web系统评估.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>功能描述</t>
   </si>
@@ -58,10 +58,6 @@
     <t>时间／工作日</t>
   </si>
   <si>
-    <t>程序架构设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>子功能模块</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -192,10 +188,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>控制中心管理</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义分类内容(3个)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -209,10 +201,6 @@
   </si>
   <si>
     <t>会员信息获取：基本信息、权限以及账户余额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户退出登录，及登录凭证过期处理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -221,10 +209,6 @@
 2,省级代理商
 3,市级代理商
 4,县级代理商</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序架构设计，底层数据库设计等</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -291,10 +275,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>超级管理员或代理商通过快捷方式，进入普通会员界面，如帮助普通会员配置直播间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>PC首页广告添加、修改和删除
 PC直播页广告添加、修改和删除
 手机端官方推广添加、修改和删除</t>
@@ -362,24 +342,102 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">基本参数配置: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如账务参数，用户与代理商与平台利益分配比例，代理商与平台分配比例</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">新增会员：　手机号，认证邮箱，　身份认证信息，　
+    <t>房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取主播道具列表(10个, 后台挑选)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取官房推荐房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索房间:
+1,用户输出关键字(房间号、主播名等)搜索
+2,分页查询房间
+3,房间分类查找</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间分类列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取首页直定义推荐分类(3个)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取官方推荐广告和主播推荐广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间发起的互动投票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众互动投票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众关注房间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众添加房间评论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送礼物，打赏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取会员消费记录(打赏记录): 房间，主播，礼品类型，数量，价值，消费时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝充值(第三方)
+微信充值(第三方)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取观众房间评论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间播放历史记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员注册：手机号码注册，发送手机验证码(第三方)，头像上传
+修改密码
+忘记密码：重置密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录：QQ登录、微信登录和账户登录 (直播控制和后台控制只允许账户登录)
+用户退出登录，及登录凭证过期处理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序架构设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序架构设计，底层数据库设计等</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本参数配置: 如账务参数，用户与代理商与平台利益分配比例，代理商与平台分配比例</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增会员：　手机号，认证邮箱，　身份认证信息，　
 修改会员信息
 会员列表展示
 代理商列表
@@ -387,198 +445,33 @@
 会员级别变更
 用户账号启用、停用
 会员广告位启用停用
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>控制中心管理，超级管理员或代理商通过快捷方式，进入普通会员界面，如帮助普通会员配置直播间</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>会员信息修改：妮称(只允许修改一次)、身份证信息和其它基本信息。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是否做身份证认证？</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员登录：QQ登录、微信登录和账户登录 (直播控制和后台控制只允许账户登录)
-退出，自动过期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取主播道具列表(10个, 后台挑选)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取官房推荐房间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索房间:
-1,用户输出关键字(房间号、主播名等)搜索
-2,分页查询房间
-3,房间分类查找</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取房间分类列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取首页直定义推荐分类(3个)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取首页推荐直播房间(1个)
+控制中心管理，超级管理员或代理商通过快捷方式，进入普通会员界面，如帮助普通会员配置直播间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员信息修改：妮称(只允许修改一次)、身份证信息和其它基本信息。是否做身份证认证？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看历史记录，清空历史记录，历史记录自动过期(最近观看多少条，后台可配置)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房间详细信息：名称，主播，分类，状态，详情等，播放详情和播放公告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间二维码：平台二维码，房间二维码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取充值金额列表: 10元, 50元, 1000元等 (后台可配置)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取首页推荐直播房间(1个)：后台配置
 获取首页背景广告或房间推荐 (1个)
 获取首页推荐房间(6个)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取充值金额列表: 10元, 50元, 1000元等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (后台可配置，还是前端写死？)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取房间播放历史记录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取官方推荐广告和主播推荐广告</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取房间发起的互动投票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>观众互动投票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>观众关注房间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>房间二维码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台二维码，房间二维码，主播二维码？</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>观众添加房间评论</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取观众房间评论</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝充值(第三方)
-微信充值(第三方)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">获取房间详细信息：名称，主播，分类，状态，详情等
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>播放详情和播放公告是同一个吗？</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员注册：手机号码注册，发送手机验证码(第三方)，头像上传
-修改密码
-忘记密码：重置密码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>观多评论表情包？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>观看历史记录，清空历史记录，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>历史记录自动过期(后台可配置)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送礼物，打赏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取会员消费记录(打赏记录): 房间，主播，礼品类型，数量，价值，消费时间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -675,13 +568,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -699,13 +585,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -793,14 +672,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,9 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,55 +699,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1398,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E20" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1410,815 +1274,781 @@
     <col min="2" max="2" width="35.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="63.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="3">
+    </row>
+    <row r="36" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="3">
+    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="3">
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="3">
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="3">
+    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="17" t="s">
+    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="3">
+      <c r="C55" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="25" t="s">
+    <row r="56" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="19" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="12"/>
-    </row>
-    <row r="58" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="12">
-        <v>0.5</v>
+      <c r="D58" s="14"/>
+      <c r="E58" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C35:D35"/>
+  <mergeCells count="58">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
